--- a/CSC 316 - Project 1/book.xlsx
+++ b/CSC 316 - Project 1/book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAgarwal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokemonace241\Downloads\eclipse-java-kepler-SR1-win32-x86_64\eclipse\csc316\CSC 316 - Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>Naïve</t>
   </si>
@@ -50,14 +50,62 @@
     <t>Map Words</t>
   </si>
   <si>
-    <t>For Worst-Case Runtime - Words in Text</t>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>rome</t>
+  </si>
+  <si>
+    <t>buddhism</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>wc/t</t>
+  </si>
+  <si>
+    <t>uc/t</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Worst Case Run-Time</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>rom</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +113,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,11 +218,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,6 +326,2233 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Worst-Case</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Run-Time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>in terms of total words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$16:$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Move To Front</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transpose</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Access Count</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Binary Search</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sort At End</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map Words</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="226875256"/>
+        <c:axId val="226870552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="226875256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>heuristic</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226870552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226870552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>words per milisecond</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226875256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Worst-Case</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Run-Time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>In terms of distinct words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4011596675415573"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$16:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Move To Front</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transpose</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Access Count</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Binary Search</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sort At End</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map Words</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$16:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="444843688"/>
+        <c:axId val="444852312"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$16:$D$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Base</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Naïve</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Move To Front</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Transpose</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Access Count</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Binary Search</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Sort At End</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Map Words</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$16:$E$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$16:$D$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>Base</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Naïve</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Move To Front</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Transpose</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Access Count</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Binary Search</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Sort At End</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Map Words</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$16:$F$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444843688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>heuristic</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444852312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444852312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>unique</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> words per milisecond</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444843688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,89 +2818,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>8419</v>
       </c>
+      <c r="C3">
+        <v>1929</v>
+      </c>
+      <c r="D3" s="2">
+        <v>179</v>
+      </c>
+      <c r="E3" s="34">
+        <f>B3/D3</f>
+        <v>47.033519553072622</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3/D3</f>
+        <v>10.776536312849162</v>
+      </c>
+      <c r="G3" s="6">
+        <v>262</v>
+      </c>
+      <c r="H3" s="7">
+        <f>B3/G3</f>
+        <v>32.13358778625954</v>
+      </c>
+      <c r="I3" s="7">
+        <f>C3/G3</f>
+        <v>7.3625954198473282</v>
+      </c>
+      <c r="J3" s="9">
+        <v>114</v>
+      </c>
+      <c r="K3" s="10">
+        <f>B3/J3</f>
+        <v>73.850877192982452</v>
+      </c>
+      <c r="L3" s="26">
+        <f>C3/J3</f>
+        <v>16.921052631578949</v>
+      </c>
+      <c r="M3" s="18">
+        <v>71</v>
+      </c>
+      <c r="N3" s="27">
+        <f>B3/M3</f>
+        <v>118.5774647887324</v>
+      </c>
+      <c r="O3" s="27">
+        <f>C3/M3</f>
+        <v>27.169014084507044</v>
+      </c>
+      <c r="P3" s="15">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="28">
+        <f>B3/P3</f>
+        <v>109.33766233766234</v>
+      </c>
+      <c r="R3" s="28">
+        <f>C3/P3</f>
+        <v>25.051948051948052</v>
+      </c>
+      <c r="S3" s="12">
+        <v>34</v>
+      </c>
+      <c r="T3" s="13">
+        <f>B3/S3</f>
+        <v>247.61764705882354</v>
+      </c>
+      <c r="U3" s="13">
+        <f>C3/S3</f>
+        <v>56.735294117647058</v>
+      </c>
+      <c r="V3" s="21">
+        <v>2411</v>
+      </c>
+      <c r="W3" s="31">
+        <f>B3/V3</f>
+        <v>3.4919120696806303</v>
+      </c>
+      <c r="X3" s="32">
+        <f>C3/V3</f>
+        <v>0.8000829531314807</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="40">
+        <f>B3/Y3</f>
+        <v>221.55263157894737</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>C3/Y3</f>
+        <v>50.763157894736842</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>13605</v>
       </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2">
+        <v>267</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E7" si="0">B4/D4</f>
+        <v>50.955056179775283</v>
+      </c>
+      <c r="F4" s="51">
+        <f t="shared" ref="F4:F7" si="1">C4/D4</f>
+        <v>0.43820224719101125</v>
+      </c>
+      <c r="G4" s="6">
+        <v>523</v>
+      </c>
+      <c r="H4" s="35">
+        <f t="shared" ref="H4:H7" si="2">B4/G4</f>
+        <v>26.013384321223711</v>
+      </c>
+      <c r="I4" s="52">
+        <f t="shared" ref="I4:I7" si="3">C4/G4</f>
+        <v>0.22370936902485661</v>
+      </c>
+      <c r="J4" s="9">
+        <v>164</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K7" si="4">B4/J4</f>
+        <v>82.957317073170728</v>
+      </c>
+      <c r="L4" s="53">
+        <f t="shared" ref="L4:L7" si="5">C4/J4</f>
+        <v>0.71341463414634143</v>
+      </c>
+      <c r="M4" s="18">
+        <v>199</v>
+      </c>
+      <c r="N4" s="19">
+        <f t="shared" ref="N4:N7" si="6">B4/M4</f>
+        <v>68.366834170854275</v>
+      </c>
+      <c r="O4" s="57">
+        <f t="shared" ref="O4:O7" si="7">C4/M4</f>
+        <v>0.5879396984924623</v>
+      </c>
+      <c r="P4" s="15">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" ref="Q4:Q7" si="8">B4/P4</f>
+        <v>79.098837209302332</v>
+      </c>
+      <c r="R4" s="54">
+        <f t="shared" ref="R4:R7" si="9">C4/P4</f>
+        <v>0.68023255813953487</v>
+      </c>
+      <c r="S4" s="12">
+        <v>46</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" ref="T4:T7" si="10">B4/S4</f>
+        <v>295.76086956521738</v>
+      </c>
+      <c r="U4" s="55">
+        <f t="shared" ref="U4:U7" si="11">C4/S4</f>
+        <v>2.5434782608695654</v>
+      </c>
+      <c r="V4" s="21">
+        <v>6524</v>
+      </c>
+      <c r="W4" s="22">
+        <f t="shared" ref="W4:W7" si="12">B4/V4</f>
+        <v>2.0853770692826488</v>
+      </c>
+      <c r="X4" s="39">
+        <f t="shared" ref="X4:X7" si="13">C4/V4</f>
+        <v>1.7933782955242183E-2</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4:Z7" si="14">B4/Y4</f>
+        <v>261.63461538461536</v>
+      </c>
+      <c r="AA4" s="56">
+        <f>C4/Y4</f>
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>14811</v>
       </c>
+      <c r="C5">
+        <v>445</v>
+      </c>
+      <c r="D5" s="2">
+        <v>273</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>54.252747252747255</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.63003663003663</v>
+      </c>
+      <c r="G5" s="6">
+        <v>422</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>35.097156398104268</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0545023696682465</v>
+      </c>
+      <c r="J5" s="9">
+        <v>149</v>
+      </c>
+      <c r="K5" s="26">
+        <f t="shared" si="4"/>
+        <v>99.402684563758385</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="5"/>
+        <v>2.9865771812080535</v>
+      </c>
+      <c r="M5" s="18">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19">
+        <f t="shared" si="6"/>
+        <v>103.57342657342657</v>
+      </c>
+      <c r="O5" s="19">
+        <f t="shared" si="7"/>
+        <v>3.1118881118881121</v>
+      </c>
+      <c r="P5" s="15">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="16">
+        <f t="shared" si="8"/>
+        <v>97.440789473684205</v>
+      </c>
+      <c r="R5" s="16">
+        <f t="shared" si="9"/>
+        <v>2.9276315789473686</v>
+      </c>
+      <c r="S5" s="12">
+        <v>66</v>
+      </c>
+      <c r="T5" s="30">
+        <f t="shared" si="10"/>
+        <v>224.40909090909091</v>
+      </c>
+      <c r="U5" s="13">
+        <f t="shared" si="11"/>
+        <v>6.7424242424242422</v>
+      </c>
+      <c r="V5" s="21">
+        <v>8011</v>
+      </c>
+      <c r="W5" s="22">
+        <f t="shared" si="12"/>
+        <v>1.8488328548246162</v>
+      </c>
+      <c r="X5" s="38">
+        <f t="shared" si="13"/>
+        <v>5.5548620646610911E-2</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="14"/>
+        <v>290.41176470588238</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" ref="AA5:AA7" si="15">C5/Y5</f>
+        <v>8.7254901960784306</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>23377</v>
       </c>
+      <c r="C6">
+        <v>4610</v>
+      </c>
+      <c r="D6" s="2">
+        <v>462</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>50.599567099567096</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9783549783549788</v>
+      </c>
+      <c r="G6" s="6">
+        <v>469</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="2"/>
+        <v>49.844349680170573</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="3"/>
+        <v>9.8294243070362466</v>
+      </c>
+      <c r="J6" s="9">
+        <v>323</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="4"/>
+        <v>72.374613003095973</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="5"/>
+        <v>14.272445820433436</v>
+      </c>
+      <c r="M6" s="18">
+        <v>324</v>
+      </c>
+      <c r="N6" s="19">
+        <f t="shared" si="6"/>
+        <v>72.151234567901241</v>
+      </c>
+      <c r="O6" s="19">
+        <f t="shared" si="7"/>
+        <v>14.228395061728396</v>
+      </c>
+      <c r="P6" s="15">
+        <v>307</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="8"/>
+        <v>76.146579804560261</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="9"/>
+        <v>15.016286644951141</v>
+      </c>
+      <c r="S6" s="12">
+        <v>95</v>
+      </c>
+      <c r="T6" s="13">
+        <f t="shared" si="10"/>
+        <v>246.07368421052632</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="11"/>
+        <v>48.526315789473685</v>
+      </c>
+      <c r="V6" s="21">
+        <v>21140</v>
+      </c>
+      <c r="W6" s="22">
+        <f t="shared" si="12"/>
+        <v>1.1058183538315989</v>
+      </c>
+      <c r="X6" s="38">
+        <f t="shared" si="13"/>
+        <v>0.21807000946073793</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="14"/>
+        <v>354.19696969696969</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="15"/>
+        <v>69.848484848484844</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>80172</v>
+      </c>
+      <c r="C7">
+        <v>11407</v>
+      </c>
+      <c r="D7" s="2">
+        <v>585</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>137.04615384615386</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="1"/>
+        <v>19.499145299145297</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1750</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>45.812571428571431</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="3"/>
+        <v>6.5182857142857147</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2166</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="4"/>
+        <v>37.013850415512465</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="5"/>
+        <v>5.2663896583564176</v>
+      </c>
+      <c r="M7" s="18">
+        <v>1700</v>
+      </c>
+      <c r="N7" s="37">
+        <f t="shared" si="6"/>
+        <v>47.16</v>
+      </c>
+      <c r="O7" s="19">
+        <f t="shared" si="7"/>
+        <v>6.71</v>
+      </c>
+      <c r="P7" s="15">
+        <v>1841</v>
+      </c>
+      <c r="Q7" s="41">
+        <f t="shared" si="8"/>
+        <v>43.548071700162957</v>
+      </c>
+      <c r="R7" s="16">
+        <f t="shared" si="9"/>
+        <v>6.1960890820206407</v>
+      </c>
+      <c r="S7" s="12">
+        <v>162</v>
+      </c>
+      <c r="T7" s="29">
+        <f t="shared" si="10"/>
+        <v>494.88888888888891</v>
+      </c>
+      <c r="U7" s="29">
+        <f t="shared" si="11"/>
+        <v>70.413580246913583</v>
+      </c>
+      <c r="V7" s="21">
+        <v>347864</v>
+      </c>
+      <c r="W7" s="39">
+        <f t="shared" si="12"/>
+        <v>0.23046937883770668</v>
+      </c>
+      <c r="X7" s="38">
+        <f t="shared" si="13"/>
+        <v>3.2791550720971417E-2</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z7" s="24">
+        <f t="shared" si="14"/>
+        <v>398.86567164179104</v>
+      </c>
+      <c r="AA7" s="24">
+        <f t="shared" si="15"/>
+        <v>56.75124378109453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M10" s="33"/>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA12" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0.44</v>
+      </c>
+      <c r="H13">
+        <v>26</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0.22</v>
+      </c>
+      <c r="K13">
+        <v>37</v>
+      </c>
+      <c r="L13">
+        <v>0.71</v>
+      </c>
+      <c r="N13">
+        <v>47</v>
+      </c>
+      <c r="O13" s="50">
+        <v>0.59</v>
+      </c>
+      <c r="Q13">
+        <v>44</v>
+      </c>
+      <c r="R13" s="50">
+        <v>0.68</v>
+      </c>
+      <c r="T13">
+        <v>224</v>
+      </c>
+      <c r="U13" s="50">
+        <v>2.54</v>
+      </c>
+      <c r="W13" s="50">
+        <v>0.23</v>
+      </c>
+      <c r="X13" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="Z13">
+        <v>222</v>
+      </c>
+      <c r="AA13" s="50">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C16" s="50"/>
+      <c r="D16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16">
+        <v>47</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="50"/>
+      <c r="D17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17">
+        <v>26</v>
+      </c>
+      <c r="H17" s="50">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18">
+        <v>37</v>
+      </c>
+      <c r="H18">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="50"/>
+      <c r="D19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19">
+        <v>47</v>
+      </c>
+      <c r="H19" s="50">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="50"/>
+      <c r="D20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20">
+        <v>44</v>
+      </c>
+      <c r="H20" s="50">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="50"/>
+      <c r="D21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21">
+        <v>224</v>
+      </c>
+      <c r="H21" s="50">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="50"/>
+      <c r="D22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="50">
+        <v>0.23</v>
+      </c>
+      <c r="H22" s="50">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="50"/>
+      <c r="D23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23">
+        <v>222</v>
+      </c>
+      <c r="H23" s="50">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+  <mergeCells count="25">
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="D1:Y1"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>